--- a/output/Clyde_River/k_3/clusters_data.xlsx
+++ b/output/Clyde_River/k_3/clusters_data.xlsx
@@ -20,6 +20,264 @@
     <t>Cluster ID</t>
   </si>
   <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>366</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>477</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>474</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>318</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>965</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>329</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>476</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>479</t>
+  </si>
+  <si>
+    <t>478</t>
+  </si>
+  <si>
+    <t>514</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>2219</t>
+  </si>
+  <si>
+    <t>2218</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>516</t>
+  </si>
+  <si>
+    <t>2217</t>
+  </si>
+  <si>
+    <t>475</t>
+  </si>
+  <si>
     <t>273</t>
   </si>
   <si>
@@ -32,9 +290,6 @@
     <t>210</t>
   </si>
   <si>
-    <t>212</t>
-  </si>
-  <si>
     <t>231</t>
   </si>
   <si>
@@ -95,9 +350,6 @@
     <t>221</t>
   </si>
   <si>
-    <t>215</t>
-  </si>
-  <si>
     <t>218</t>
   </si>
   <si>
@@ -128,9 +380,6 @@
     <t>441</t>
   </si>
   <si>
-    <t>138</t>
-  </si>
-  <si>
     <t>240</t>
   </si>
   <si>
@@ -140,12 +389,6 @@
     <t>200</t>
   </si>
   <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
     <t>203</t>
   </si>
   <si>
@@ -161,12 +404,6 @@
     <t>12</t>
   </si>
   <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>309</t>
-  </si>
-  <si>
     <t>458</t>
   </si>
   <si>
@@ -212,9 +449,6 @@
     <t>224</t>
   </si>
   <si>
-    <t>213</t>
-  </si>
-  <si>
     <t>97</t>
   </si>
   <si>
@@ -231,240 +465,6 @@
   </si>
   <si>
     <t>237</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>302</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>366</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>477</t>
-  </si>
-  <si>
-    <t>303</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>256</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>249</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>329</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>476</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>322</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>247</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>480</t>
-  </si>
-  <si>
-    <t>248</t>
-  </si>
-  <si>
-    <t>335</t>
-  </si>
-  <si>
-    <t>479</t>
-  </si>
-  <si>
-    <t>478</t>
-  </si>
-  <si>
-    <t>514</t>
-  </si>
-  <si>
-    <t>512</t>
-  </si>
-  <si>
-    <t>243</t>
-  </si>
-  <si>
-    <t>242</t>
-  </si>
-  <si>
-    <t>244</t>
-  </si>
-  <si>
-    <t>474</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>318</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>965</t>
-  </si>
-  <si>
-    <t>246</t>
-  </si>
-  <si>
-    <t>2219</t>
-  </si>
-  <si>
-    <t>2218</t>
-  </si>
-  <si>
-    <t>245</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>516</t>
-  </si>
-  <si>
-    <t>2217</t>
-  </si>
-  <si>
-    <t>475</t>
   </si>
 </sst>
 </file>
@@ -805,18 +805,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BX4"/>
+  <dimension ref="A1:BW4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:76">
+    <row r="1" spans="1:75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:76">
+    <row r="2" spans="1:75">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -845,497 +845,497 @@
         <v>8</v>
       </c>
       <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>16</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>17</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>18</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>19</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>20</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>21</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>22</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
         <v>28</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AF2" t="s">
         <v>29</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>30</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI2" t="s">
         <v>31</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AJ2" t="s">
         <v>32</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AK2" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AL2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AM2" t="s">
         <v>35</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AN2" t="s">
         <v>36</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AO2" t="s">
         <v>37</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AP2" t="s">
         <v>38</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AQ2" t="s">
         <v>39</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AR2" t="s">
         <v>40</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AS2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AU2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AV2" t="s">
         <v>42</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AW2" t="s">
         <v>43</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AX2" t="s">
         <v>44</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AY2" t="s">
         <v>45</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AZ2" t="s">
         <v>46</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="BA2" t="s">
         <v>47</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BB2" t="s">
         <v>48</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BC2" t="s">
         <v>49</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BD2" t="s">
         <v>50</v>
       </c>
-      <c r="AZ2" t="s">
-        <v>48</v>
-      </c>
-      <c r="BA2" t="s">
+      <c r="BE2" t="s">
         <v>51</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BF2" t="s">
         <v>52</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>56</v>
       </c>
       <c r="BG2" t="s">
         <v>53</v>
       </c>
       <c r="BH2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK2" t="s">
         <v>57</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BL2" t="s">
         <v>58</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BM2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BN2" t="s">
         <v>59</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BO2" t="s">
         <v>60</v>
       </c>
-      <c r="BL2" t="s">
-        <v>48</v>
-      </c>
-      <c r="BM2" t="s">
+      <c r="BP2" t="s">
         <v>61</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BQ2" t="s">
         <v>62</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BR2" t="s">
         <v>63</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BS2" t="s">
         <v>64</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BT2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>25</v>
+      </c>
+      <c r="BV2" t="s">
         <v>65</v>
       </c>
-      <c r="BR2" t="s">
-        <v>66</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>67</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>68</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>70</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>72</v>
-      </c>
     </row>
-    <row r="3" spans="1:76">
+    <row r="3" spans="1:75">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s">
         <v>73</v>
       </c>
-      <c r="C3" t="s">
+      <c r="J3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" t="s">
         <v>74</v>
       </c>
-      <c r="D3" t="s">
+      <c r="L3" t="s">
         <v>75</v>
       </c>
-      <c r="E3" t="s">
+      <c r="M3" t="s">
         <v>76</v>
       </c>
-      <c r="F3" t="s">
+      <c r="N3" t="s">
         <v>77</v>
       </c>
-      <c r="G3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="O3" t="s">
         <v>78</v>
       </c>
-      <c r="I3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="P3" t="s">
         <v>79</v>
       </c>
-      <c r="K3" t="s">
+      <c r="Q3" t="s">
         <v>80</v>
       </c>
-      <c r="L3" t="s">
+      <c r="R3" t="s">
         <v>81</v>
       </c>
-      <c r="M3" t="s">
+      <c r="S3" t="s">
         <v>82</v>
       </c>
-      <c r="N3" t="s">
+      <c r="T3" t="s">
         <v>83</v>
       </c>
-      <c r="O3" t="s">
+      <c r="U3" t="s">
         <v>84</v>
       </c>
-      <c r="P3" t="s">
+      <c r="V3" t="s">
         <v>85</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="W3" t="s">
         <v>86</v>
       </c>
-      <c r="R3" t="s">
-        <v>87</v>
-      </c>
-      <c r="S3" t="s">
-        <v>88</v>
-      </c>
-      <c r="T3" t="s">
-        <v>89</v>
-      </c>
-      <c r="U3" t="s">
-        <v>90</v>
-      </c>
-      <c r="V3" t="s">
-        <v>91</v>
-      </c>
-      <c r="W3" t="s">
-        <v>92</v>
-      </c>
-      <c r="X3" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>114</v>
-      </c>
     </row>
-    <row r="4" spans="1:76">
+    <row r="4" spans="1:75">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L4" t="s">
+        <v>96</v>
+      </c>
+      <c r="M4" t="s">
+        <v>97</v>
+      </c>
+      <c r="N4" t="s">
+        <v>98</v>
+      </c>
+      <c r="O4" t="s">
+        <v>99</v>
+      </c>
+      <c r="P4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>101</v>
+      </c>
+      <c r="R4" t="s">
+        <v>102</v>
+      </c>
+      <c r="S4" t="s">
+        <v>103</v>
+      </c>
+      <c r="T4" t="s">
+        <v>104</v>
+      </c>
+      <c r="U4" t="s">
+        <v>105</v>
+      </c>
+      <c r="V4" t="s">
+        <v>106</v>
+      </c>
+      <c r="W4" t="s">
+        <v>107</v>
+      </c>
+      <c r="X4" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF4" t="s">
         <v>115</v>
       </c>
-      <c r="C4" t="s">
+      <c r="AG4" t="s">
         <v>116</v>
       </c>
-      <c r="D4" t="s">
+      <c r="AH4" t="s">
         <v>117</v>
       </c>
-      <c r="E4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="AI4" t="s">
         <v>118</v>
       </c>
-      <c r="G4" t="s">
+      <c r="AJ4" t="s">
         <v>119</v>
       </c>
-      <c r="H4" t="s">
+      <c r="AK4" t="s">
         <v>120</v>
       </c>
-      <c r="I4" t="s">
+      <c r="AL4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM4" t="s">
         <v>121</v>
       </c>
-      <c r="J4" t="s">
+      <c r="AN4" t="s">
         <v>122</v>
       </c>
-      <c r="K4" t="s">
+      <c r="AO4" t="s">
         <v>123</v>
       </c>
-      <c r="L4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="AP4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR4" t="s">
         <v>124</v>
       </c>
-      <c r="N4" t="s">
+      <c r="AS4" t="s">
         <v>125</v>
       </c>
-      <c r="O4" t="s">
-        <v>78</v>
-      </c>
-      <c r="P4" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>72</v>
-      </c>
-      <c r="R4" t="s">
-        <v>37</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="AT4" t="s">
         <v>126</v>
       </c>
-      <c r="T4" t="s">
+      <c r="AU4" t="s">
         <v>127</v>
       </c>
-      <c r="U4" t="s">
-        <v>127</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="AV4" t="s">
         <v>128</v>
       </c>
-      <c r="W4" t="s">
+      <c r="AW4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX4" t="s">
         <v>129</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AY4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ4" t="s">
         <v>130</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="BA4" t="s">
         <v>131</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="BB4" t="s">
         <v>132</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="BC4" t="s">
         <v>133</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="BD4" t="s">
         <v>134</v>
       </c>
-      <c r="AC4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD4" t="s">
+      <c r="BE4" t="s">
         <v>135</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="BF4" t="s">
+        <v>132</v>
+      </c>
+      <c r="BG4" t="s">
         <v>136</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="BH4" t="s">
         <v>137</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="BI4" t="s">
         <v>138</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="BJ4" t="s">
         <v>139</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="BK4" t="s">
+        <v>52</v>
+      </c>
+      <c r="BL4" t="s">
         <v>140</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="BM4" t="s">
         <v>141</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="BN4" t="s">
         <v>142</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="BO4" t="s">
         <v>143</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="BP4" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ4" t="s">
         <v>144</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="BR4" t="s">
         <v>145</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="BS4" t="s">
         <v>146</v>
       </c>
-      <c r="AP4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ4" t="s">
+      <c r="BT4" t="s">
         <v>147</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="BU4" t="s">
         <v>148</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="BV4" t="s">
         <v>149</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/output/Clyde_River/k_3/clusters_data.xlsx
+++ b/output/Clyde_River/k_3/clusters_data.xlsx
@@ -20,6 +20,234 @@
     <t>Cluster ID</t>
   </si>
   <si>
+    <t>476</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>366</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>477</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>479</t>
+  </si>
+  <si>
+    <t>478</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>514</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>474</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>318</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>2219</t>
+  </si>
+  <si>
+    <t>2218</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>329</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>516</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>2217</t>
+  </si>
+  <si>
+    <t>475</t>
+  </si>
+  <si>
     <t>302</t>
   </si>
   <si>
@@ -29,253 +257,91 @@
     <t>32</t>
   </si>
   <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>366</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>322</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>477</t>
-  </si>
-  <si>
     <t>303</t>
   </si>
   <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>256</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>89</t>
+    <t>210</t>
   </si>
   <si>
     <t>90</t>
   </si>
   <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>107</t>
+    <t>211</t>
+  </si>
+  <si>
+    <t>241</t>
   </si>
   <si>
     <t>335</t>
   </si>
   <si>
-    <t>204</t>
+    <t>233</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>218</t>
   </si>
   <si>
     <t>138</t>
   </si>
   <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>244</t>
-  </si>
-  <si>
-    <t>474</t>
-  </si>
-  <si>
-    <t>249</t>
+    <t>206</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>203</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>318</t>
-  </si>
-  <si>
     <t>309</t>
   </si>
   <si>
-    <t>234</t>
-  </si>
-  <si>
     <t>965</t>
   </si>
   <si>
-    <t>245</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>329</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>476</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>247</t>
-  </si>
-  <si>
-    <t>480</t>
-  </si>
-  <si>
-    <t>215</t>
-  </si>
-  <si>
-    <t>248</t>
-  </si>
-  <si>
-    <t>479</t>
-  </si>
-  <si>
-    <t>478</t>
-  </si>
-  <si>
-    <t>514</t>
-  </si>
-  <si>
-    <t>512</t>
-  </si>
-  <si>
-    <t>243</t>
-  </si>
-  <si>
-    <t>242</t>
-  </si>
-  <si>
-    <t>246</t>
-  </si>
-  <si>
-    <t>2219</t>
-  </si>
-  <si>
-    <t>2218</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>516</t>
-  </si>
-  <si>
-    <t>2217</t>
-  </si>
-  <si>
-    <t>475</t>
+    <t>214</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>225</t>
   </si>
   <si>
     <t>273</t>
@@ -287,18 +353,12 @@
     <t>472</t>
   </si>
   <si>
-    <t>210</t>
-  </si>
-  <si>
     <t>231</t>
   </si>
   <si>
     <t>230</t>
   </si>
   <si>
-    <t>211</t>
-  </si>
-  <si>
     <t>232</t>
   </si>
   <si>
@@ -308,9 +368,6 @@
     <t>229</t>
   </si>
   <si>
-    <t>241</t>
-  </si>
-  <si>
     <t>454</t>
   </si>
   <si>
@@ -332,45 +389,18 @@
     <t>254</t>
   </si>
   <si>
-    <t>233</t>
-  </si>
-  <si>
     <t>236</t>
   </si>
   <si>
-    <t>220</t>
-  </si>
-  <si>
     <t>459</t>
   </si>
   <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t>218</t>
-  </si>
-  <si>
     <t>470</t>
   </si>
   <si>
-    <t>206</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
     <t>93</t>
   </si>
   <si>
-    <t>219</t>
-  </si>
-  <si>
     <t>440</t>
   </si>
   <si>
@@ -383,15 +413,6 @@
     <t>240</t>
   </si>
   <si>
-    <t>209</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
     <t>457</t>
   </si>
   <si>
@@ -419,40 +440,19 @@
     <t>466</t>
   </si>
   <si>
-    <t>214</t>
-  </si>
-  <si>
-    <t>223</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
     <t>228</t>
   </si>
   <si>
     <t>226</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>227</t>
   </si>
   <si>
-    <t>217</t>
-  </si>
-  <si>
     <t>447</t>
   </si>
   <si>
-    <t>224</t>
-  </si>
-  <si>
     <t>97</t>
-  </si>
-  <si>
-    <t>225</t>
   </si>
   <si>
     <t>239</t>
@@ -805,18 +805,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BW4"/>
+  <dimension ref="A1:CG4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:75">
+    <row r="1" spans="1:85">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:75">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -842,13 +842,13 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J2" t="s">
         <v>8</v>
       </c>
       <c r="K2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L2" t="s">
         <v>9</v>
@@ -911,13 +911,13 @@
         <v>28</v>
       </c>
       <c r="AF2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG2" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>30</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>23</v>
       </c>
       <c r="AI2" t="s">
         <v>31</v>
@@ -950,10 +950,10 @@
         <v>40</v>
       </c>
       <c r="AS2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AU2" t="s">
         <v>41</v>
@@ -971,46 +971,46 @@
         <v>45</v>
       </c>
       <c r="AZ2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA2" t="s">
         <v>46</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BB2" t="s">
         <v>47</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BC2" t="s">
         <v>48</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BD2" t="s">
         <v>49</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BE2" t="s">
         <v>50</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BF2" t="s">
         <v>51</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BG2" t="s">
         <v>52</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BH2" t="s">
         <v>53</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BI2" t="s">
         <v>54</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BJ2" t="s">
         <v>55</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BK2" t="s">
         <v>56</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
         <v>57</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
         <v>58</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>52</v>
       </c>
       <c r="BN2" t="s">
         <v>59</v>
@@ -1031,311 +1031,311 @@
         <v>64</v>
       </c>
       <c r="BT2" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="BU2" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="BV2" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>71</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>24</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>72</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>23</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>73</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>74</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>75</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:75">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="I3" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J3" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="K3" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="L3" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="M3" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="N3" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="O3" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="Q3" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="R3" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="S3" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="T3" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="U3" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="V3" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="W3" t="s">
-        <v>86</v>
+        <v>96</v>
+      </c>
+      <c r="X3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:75">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="G4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K4" t="s">
+        <v>118</v>
+      </c>
+      <c r="L4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M4" t="s">
+        <v>120</v>
+      </c>
+      <c r="N4" t="s">
+        <v>121</v>
+      </c>
+      <c r="O4" t="s">
+        <v>122</v>
+      </c>
+      <c r="P4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>124</v>
+      </c>
+      <c r="R4" t="s">
+        <v>125</v>
+      </c>
+      <c r="S4" t="s">
+        <v>126</v>
+      </c>
+      <c r="T4" t="s">
+        <v>127</v>
+      </c>
+      <c r="U4" t="s">
+        <v>128</v>
+      </c>
+      <c r="V4" t="s">
+        <v>129</v>
+      </c>
+      <c r="W4" t="s">
+        <v>130</v>
+      </c>
+      <c r="X4" t="s">
         <v>91</v>
       </c>
-      <c r="H4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I4" t="s">
-        <v>93</v>
-      </c>
-      <c r="J4" t="s">
-        <v>94</v>
-      </c>
-      <c r="K4" t="s">
-        <v>95</v>
-      </c>
-      <c r="L4" t="s">
-        <v>96</v>
-      </c>
-      <c r="M4" t="s">
-        <v>97</v>
-      </c>
-      <c r="N4" t="s">
-        <v>98</v>
-      </c>
-      <c r="O4" t="s">
-        <v>99</v>
-      </c>
-      <c r="P4" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>101</v>
-      </c>
-      <c r="R4" t="s">
-        <v>102</v>
-      </c>
-      <c r="S4" t="s">
-        <v>103</v>
-      </c>
-      <c r="T4" t="s">
-        <v>104</v>
-      </c>
-      <c r="U4" t="s">
-        <v>105</v>
-      </c>
-      <c r="V4" t="s">
-        <v>106</v>
-      </c>
-      <c r="W4" t="s">
-        <v>107</v>
-      </c>
-      <c r="X4" t="s">
-        <v>108</v>
-      </c>
       <c r="Y4" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="Z4" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="AA4" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="AB4" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="AC4" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="AD4" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="AE4" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="AF4" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="AG4" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="AH4" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="AI4" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="AJ4" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="AK4" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="AL4" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="AM4" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="AN4" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="AO4" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="AP4" t="s">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="AQ4" t="s">
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="AR4" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="AS4" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="AT4" t="s">
-        <v>126</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>130</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>131</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>132</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>133</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>134</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>135</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>132</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>136</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>137</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>138</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>139</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>52</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>140</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>141</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>142</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>143</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>67</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>144</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>145</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>146</v>
-      </c>
-      <c r="BT4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>148</v>
-      </c>
-      <c r="BV4" t="s">
         <v>149</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1363,9 +1363,6 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
@@ -1383,9 +1380,6 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
         <v>1</v>
       </c>
     </row>
